--- a/DMP/Report/Uploads/DATIM PIVOT TABLE SAMPLE.xlsx
+++ b/DMP/Report/Uploads/DATIM PIVOT TABLE SAMPLE.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="data (13)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="1" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>organisationunitid</t>
   </si>
@@ -36,66 +36,30 @@
     <t>ovc_hivstat (n, dsd, reportedstatus)</t>
   </si>
   <si>
-    <t>km9iUzbNnGY</t>
-  </si>
-  <si>
-    <t>Otulu Aguneze Primary Health Center</t>
-  </si>
-  <si>
     <t>qGQliH5UA4W</t>
   </si>
   <si>
     <t>Aboh Mbaise General Hospital</t>
   </si>
   <si>
-    <t>LIMQX2rjRAc</t>
-  </si>
-  <si>
-    <t>Enyiogugu Primary Health Center</t>
-  </si>
-  <si>
     <t>vidxf7Mjwn0</t>
   </si>
   <si>
     <t>Holy Rosary Hospital Ogbor Nguru</t>
   </si>
   <si>
-    <t>CglgNlIZy4K</t>
-  </si>
-  <si>
-    <t>Ibeku Primary Health Center</t>
-  </si>
-  <si>
     <t>NiviaoJZNyh</t>
   </si>
   <si>
     <t>Mbutu Primary Health Center</t>
   </si>
   <si>
-    <t>hOC8KaWZZT2</t>
-  </si>
-  <si>
-    <t>Nguru Nweke Primary Health Center</t>
-  </si>
-  <si>
     <t>ccEqDMosxj8</t>
   </si>
   <si>
     <t>Nkworgwu Health Center</t>
   </si>
   <si>
-    <t>e9OWS1OZ1qR</t>
-  </si>
-  <si>
-    <t>Oboloagwa Primary Health Center</t>
-  </si>
-  <si>
-    <t>HmeQIK11O8V</t>
-  </si>
-  <si>
-    <t>Orient Hospital</t>
-  </si>
-  <si>
     <t>jRwU6kFKmtR</t>
   </si>
   <si>
@@ -108,12 +72,6 @@
     <t>Nnariambia Primary Health Center</t>
   </si>
   <si>
-    <t>Q1X4vatkRmB</t>
-  </si>
-  <si>
-    <t>Okirika Nweke Primary Health Center</t>
-  </si>
-  <si>
     <t>iv0qlMT9FCJ</t>
   </si>
   <si>
@@ -126,76 +84,22 @@
     <t>Umuokirika Primary Health Center</t>
   </si>
   <si>
-    <t>Z7oF635YWjq</t>
-  </si>
-  <si>
-    <t>Agbaja Health Center</t>
-  </si>
-  <si>
-    <t>ujC6fXV7YXm</t>
-  </si>
-  <si>
-    <t>Umuduru Opara Health Center</t>
-  </si>
-  <si>
-    <t>Y3zzJsVHWcy</t>
-  </si>
-  <si>
-    <t>Nzerem Primary Health Center</t>
-  </si>
-  <si>
-    <t>nTEavHH6036</t>
-  </si>
-  <si>
-    <t>Umuakagu Health Center</t>
-  </si>
-  <si>
-    <t>tb1CoNjkies</t>
-  </si>
-  <si>
-    <t>Umueze 1 Umunanom Health Center</t>
-  </si>
-  <si>
-    <t>i4MOncGuWiw</t>
-  </si>
-  <si>
-    <t>Umueze 2 Health Center</t>
-  </si>
-  <si>
-    <t>YDurr5piVpb</t>
-  </si>
-  <si>
-    <t>Umuezealla Ogwarra Primary Health Center</t>
-  </si>
-  <si>
-    <t>NiaQ2fgh9th</t>
-  </si>
-  <si>
-    <t>Umuezeala Nsu Health Center</t>
-  </si>
-  <si>
-    <t>UeLjyCRf41x</t>
-  </si>
-  <si>
-    <t>Umuezeala Owere Health Center</t>
-  </si>
-  <si>
-    <t>ocC7te06oOO</t>
-  </si>
-  <si>
-    <t>Umugolo Primary Health Center</t>
-  </si>
-  <si>
-    <t>aU2oSCCLmV2</t>
-  </si>
-  <si>
-    <t>Umunakanu Health Post</t>
-  </si>
-  <si>
     <t>tb_art (n, dsd)</t>
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Eastern Nigeria Medical Center</t>
+  </si>
+  <si>
+    <t>QiypT8ow3mI</t>
+  </si>
+  <si>
+    <t>Mbieri General Hospital</t>
+  </si>
+  <si>
+    <t>aMKXrfGkE1q</t>
   </si>
 </sst>
 </file>
@@ -682,7 +586,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1004,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="B2:G12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,21 +939,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -1058,405 +962,164 @@
         <v>85</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G18" si="0">SUM(C2:E2)</f>
+        <f t="shared" ref="G2:G7" si="0">SUM(C2:E2)</f>
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
+      <c r="E6">
+        <v>21</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>35</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>SUM(G2:G10)</f>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>67</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G28">
-        <f>SUM(G2:G27)</f>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G29">
-        <f>G28*0.8</f>
-        <v>651.20000000000005</v>
+        <f>G11*0.8</f>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
